--- a/selector.xlsx
+++ b/selector.xlsx
@@ -326,7 +326,7 @@
         </is>
       </c>
       <c t="n" r="K2">
-        <v>21585</v>
+        <v>20109</v>
       </c>
       <c t="inlineStr" r="L2">
         <is>
@@ -402,7 +402,7 @@
         </is>
       </c>
       <c t="n" r="K3">
-        <v>81552</v>
+        <v>81426</v>
       </c>
       <c t="inlineStr" r="L3">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c t="n" r="K4">
-        <v>3069</v>
+        <v>2639</v>
       </c>
       <c t="inlineStr" r="L4">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c t="n" r="K5">
-        <v>5448</v>
+        <v>4971</v>
       </c>
       <c t="inlineStr" r="L5">
         <is>
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c t="n" r="K6">
-        <v>26638</v>
+        <v>26153</v>
       </c>
       <c t="inlineStr" r="L6">
         <is>
-          <t>7 Weeks</t>
+          <t>9 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M6">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c t="n" r="K7">
-        <v>1452231</v>
+        <v>1273177</v>
       </c>
       <c t="inlineStr" r="L7">
         <is>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c t="n" r="K8">
-        <v>298072</v>
+        <v>279388</v>
       </c>
       <c t="inlineStr" r="L8">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c t="n" r="K9">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c t="inlineStr" r="L9">
         <is>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c t="n" r="K10">
-        <v>30511</v>
+        <v>30469</v>
       </c>
       <c t="inlineStr" r="L10">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c t="n" r="K11">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c t="inlineStr" r="L11">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c t="n" r="K12">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c t="inlineStr" r="L12">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c t="n" r="K13">
-        <v>15915</v>
+        <v>14777</v>
       </c>
       <c t="inlineStr" r="L13">
         <is>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c t="n" r="K14">
-        <v>9949</v>
+        <v>8837</v>
       </c>
       <c t="inlineStr" r="L14">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c t="n" r="K15">
-        <v>3943</v>
+        <v>1857</v>
       </c>
       <c t="inlineStr" r="L15">
         <is>
@@ -1331,6 +1331,82 @@
         </is>
       </c>
       <c t="inlineStr" r="P15">
+        <is>
+          <t>REACH Unaffected</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c t="inlineStr" r="A16">
+        <is>
+          <t>OEJNI-50-4-7</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t>Kilo International</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t>226-4215-ND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D16">
+        <is>
+          <t>Knob</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c t="n" r="H16">
+        <v>1</v>
+      </c>
+      <c t="n" r="I16">
+        <v>6.44000</v>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t>$6.44</t>
+        </is>
+      </c>
+      <c t="n" r="K16">
+        <v>255</v>
+      </c>
+      <c t="inlineStr" r="L16">
+        <is>
+          <t>12 Weeks</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M16">
+        <is>
+          <t>KNOB KNURLED 0.236" METAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N16">
+        <is>
+          <t>RoHS Compliant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O16">
+        <is>
+          <t>Lead free</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P16">
         <is>
           <t>REACH Unaffected</t>
         </is>
